--- a/data/trans_dic/P22_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22_R3-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04576640742182084</v>
+        <v>0.0451696547980466</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02591540055797593</v>
+        <v>0.02537641780976337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009228065635377721</v>
+        <v>0.009552064397948428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01463130353507246</v>
+        <v>0.01601698092133996</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01686975402071206</v>
+        <v>0.01666509024502873</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01120146192232515</v>
+        <v>0.01158939024397825</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009136097435126235</v>
+        <v>0.007199705700017022</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01719262756903385</v>
+        <v>0.01758731696313518</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03632195200811182</v>
+        <v>0.03639570558980099</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02194655130810986</v>
+        <v>0.02292377386482776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01227226533114109</v>
+        <v>0.01214294833252466</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01885557307398585</v>
+        <v>0.01916794433928999</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.109547963838142</v>
+        <v>0.1091140350889452</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08119524716867239</v>
+        <v>0.07926825142165207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04909842561835646</v>
+        <v>0.04748023198754255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05279204221713923</v>
+        <v>0.05401625101342484</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06632387202311874</v>
+        <v>0.06763019002416529</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05165116910321006</v>
+        <v>0.05619393602305749</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04502057346240184</v>
+        <v>0.04509836721820775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04208491718064965</v>
+        <v>0.04308086807779275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07562471808202628</v>
+        <v>0.07511680688906033</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05522032873274585</v>
+        <v>0.05564122944861254</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04002530522781119</v>
+        <v>0.04052700583178975</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04040753217216136</v>
+        <v>0.04076020720924874</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02509569496178045</v>
+        <v>0.0255941480387511</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03920732502214419</v>
+        <v>0.03670002564287127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01017052551936868</v>
+        <v>0.008305075416787546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01744654316695552</v>
+        <v>0.01804524168342207</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02812970518856473</v>
+        <v>0.02850249810678833</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03719502987995656</v>
+        <v>0.03604955611862869</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01763100827224569</v>
+        <v>0.01867855389585769</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01617548940027429</v>
+        <v>0.01582388352129584</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02959321310751513</v>
+        <v>0.03148898830961234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04450113777802438</v>
+        <v>0.0438866300872816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01610401541220912</v>
+        <v>0.01571701835588029</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02026696143566239</v>
+        <v>0.0189552552069795</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06100068577864669</v>
+        <v>0.06129371148164728</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09018294996510869</v>
+        <v>0.08898195877337559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03425889753952219</v>
+        <v>0.03549682716509221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05646636680395497</v>
+        <v>0.05700837435013439</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06467111855845389</v>
+        <v>0.06457305058771959</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08496922375543631</v>
+        <v>0.08058618179130424</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05078788783067024</v>
+        <v>0.04894413859496818</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03960856708775762</v>
+        <v>0.03976119022143923</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05667724148575586</v>
+        <v>0.05798215213654783</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07811163578453194</v>
+        <v>0.0780226362212285</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03637862548341295</v>
+        <v>0.03593435104932775</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04293883650707526</v>
+        <v>0.04158457977229711</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01490543033294844</v>
+        <v>0.01403158489259296</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03003049499504139</v>
+        <v>0.02955460255228726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04886518643385815</v>
+        <v>0.0500316379312808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01474578090526629</v>
+        <v>0.01389641251581289</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00839096494585472</v>
+        <v>0.01056319848985349</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01137876370336833</v>
+        <v>0.01300892223486697</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02138242415840928</v>
+        <v>0.01899995962723985</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006281590580750334</v>
+        <v>0.00649892076575008</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01569131079403299</v>
+        <v>0.01573323335713478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02490325423300179</v>
+        <v>0.02595094365186764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03942271833024431</v>
+        <v>0.03970387462876505</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01307514380211267</v>
+        <v>0.01332656948673668</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05551739190849016</v>
+        <v>0.0554177079040479</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08335038183056584</v>
+        <v>0.08184056904536691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1068112288839717</v>
+        <v>0.106880391484149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0572182363680686</v>
+        <v>0.05793622253719924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04087928708386464</v>
+        <v>0.04392950376714459</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0559723169004813</v>
+        <v>0.05413353759426547</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0599673413871727</v>
+        <v>0.05911428006115187</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02565934733866295</v>
+        <v>0.02563554775416767</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04208652188324544</v>
+        <v>0.04233088260574805</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05659713007245137</v>
+        <v>0.05666291335302324</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07334996282827484</v>
+        <v>0.07296423043127961</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03444802307549005</v>
+        <v>0.03642661563640259</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04251951675274629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05918885025904292</v>
+        <v>0.05918885025904291</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03375301228001136</v>
@@ -1105,7 +1105,7 @@
         <v>0.03284425553102507</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04749981461600922</v>
+        <v>0.04749981461600921</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03696126769125644</v>
+        <v>0.03968367612926649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04108407737632584</v>
+        <v>0.04471026274308735</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0247476816216169</v>
+        <v>0.02346590312627462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03597056658239327</v>
+        <v>0.03729669770769862</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01848189638626787</v>
+        <v>0.01843628897490271</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02923108276945442</v>
+        <v>0.02833525430293195</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009663867907873965</v>
+        <v>0.01040885373746899</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02426460494685697</v>
+        <v>0.02392873273197502</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03407244332130441</v>
+        <v>0.03422581041089107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04235328943039599</v>
+        <v>0.04233201439109602</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02029862766752278</v>
+        <v>0.02149120278251385</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03465024944093866</v>
+        <v>0.03480438914370452</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09556829524593116</v>
+        <v>0.09692233603962619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1022593425598686</v>
+        <v>0.1026635429117096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0699334810951054</v>
+        <v>0.06682429223041193</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08987015181199375</v>
+        <v>0.09081287654616478</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05528590037711707</v>
+        <v>0.05486693743521411</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07210268921671249</v>
+        <v>0.06868720253696659</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04650300303942224</v>
+        <v>0.04781558030104877</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05593357367827406</v>
+        <v>0.0558688511029696</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06521920330229089</v>
+        <v>0.06693219977759715</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07966738144531119</v>
+        <v>0.07863944453867915</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0501300523539706</v>
+        <v>0.04942054860603286</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06394258896779698</v>
+        <v>0.06675064145548613</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02331760688920832</v>
+        <v>0.02446153148614783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00922405284327389</v>
+        <v>0.009216399120748191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01989249410830264</v>
+        <v>0.0195263490795237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01665305842902664</v>
+        <v>0.01583800678422913</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04310433821305718</v>
+        <v>0.04393607255598753</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.008133392581559986</v>
+        <v>0.008281708871805417</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.003947514005041747</v>
+        <v>0.003956928442248523</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01133504641064168</v>
+        <v>0.01052231677667318</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03918293824522506</v>
+        <v>0.04044626394640725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01156086435024829</v>
+        <v>0.01148153337314288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01387785772239557</v>
+        <v>0.01445523976780129</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01665017018086495</v>
+        <v>0.01635380753914495</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09012005622183175</v>
+        <v>0.09026396948931201</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04847734125093911</v>
+        <v>0.05339991810840628</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08700067082251983</v>
+        <v>0.08820349822199197</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05730412511485006</v>
+        <v>0.05618601804356355</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1205582175247435</v>
+        <v>0.1249150341487841</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05033690898990493</v>
+        <v>0.05301033179221212</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03229650928826761</v>
+        <v>0.03448769985063837</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03628667534472564</v>
+        <v>0.03439012151976591</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08864381425864203</v>
+        <v>0.08984136045138974</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03982819669755754</v>
+        <v>0.03878319733357833</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04793398477665581</v>
+        <v>0.04895503281844341</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03907215129237571</v>
+        <v>0.04037609933729932</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.01393008469869979</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0233829271880114</v>
+        <v>0.02338292718801139</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04614647564813287</v>
@@ -1377,7 +1377,7 @@
         <v>0.03152647354993725</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02222376674672874</v>
+        <v>0.02222376674672873</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03721491438829233</v>
+        <v>0.03679587333909903</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02173996907129299</v>
+        <v>0.02268366705476615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02429041268192696</v>
+        <v>0.02600338711776862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01106827001051021</v>
+        <v>0.01122558328148552</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01533144904064633</v>
+        <v>0.0148964544906548</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007005789443330751</v>
+        <v>0.006849551023387358</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003751968704116693</v>
+        <v>0.003444288737443424</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01339279105047603</v>
+        <v>0.01334843763355371</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02882537190399829</v>
+        <v>0.03101068031028841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01846246686138768</v>
+        <v>0.01820301821218931</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01924102606150867</v>
+        <v>0.0177843533786489</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01455604195357444</v>
+        <v>0.01466329318949624</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09658633508091527</v>
+        <v>0.09376029915620399</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08569984254386956</v>
+        <v>0.08798637967885302</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08474177098067329</v>
+        <v>0.08777511491828113</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03759305797484657</v>
+        <v>0.03625998401489493</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06029777880943843</v>
+        <v>0.05946404568299785</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03944233322701986</v>
+        <v>0.04374092107388122</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03803119045350495</v>
+        <v>0.03219341897436186</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04074082991998564</v>
+        <v>0.04101838882766864</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06514018639079376</v>
+        <v>0.06604618176222707</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.053057988770492</v>
+        <v>0.05403461551237036</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05230319361166442</v>
+        <v>0.05006611335296283</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0336502172183499</v>
+        <v>0.03246548281978932</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0153588605466597</v>
+        <v>0.01519473099390431</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02543480241127809</v>
+        <v>0.024646847991665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04835833870462831</v>
+        <v>0.04811159834665666</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02797095241907207</v>
+        <v>0.02795773677445203</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02299614622371719</v>
+        <v>0.02308030779628954</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01581568826570518</v>
+        <v>0.01690489389725158</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03369812431875242</v>
+        <v>0.03331586035102364</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01933148323683479</v>
+        <v>0.0202046401649696</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02265739491446074</v>
+        <v>0.02185873740955785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02388775317642524</v>
+        <v>0.02398717754926303</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04530652111200762</v>
+        <v>0.04414850447625793</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02619715751595567</v>
+        <v>0.02701056337253909</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03833017494751161</v>
+        <v>0.04023445227391741</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05730334976189558</v>
+        <v>0.0590838116824246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09141835286524487</v>
+        <v>0.09211663919686677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07192401803283813</v>
+        <v>0.07279376272285679</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05472076412073329</v>
+        <v>0.0541454506010452</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0451773604684308</v>
+        <v>0.04683634023894262</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06540637733830157</v>
+        <v>0.0654537186285718</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0443290899849438</v>
+        <v>0.04447213583023413</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04319661311347145</v>
+        <v>0.04187793373129973</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04659085750344594</v>
+        <v>0.04552981216904786</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07171792534399721</v>
+        <v>0.07017525546524266</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0504936208978226</v>
+        <v>0.05010550785397672</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.04515783974878882</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.0334023171406515</v>
+        <v>0.03340231714065149</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05931339943989886</v>
@@ -1637,7 +1637,7 @@
         <v>0.04601449891586359</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0317271273133045</v>
+        <v>0.03172712731330451</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.04276636772937362</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01537058024445542</v>
+        <v>0.01533059097727042</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02284730060524163</v>
+        <v>0.02391250781591411</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03209032436530673</v>
+        <v>0.03194464065239128</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02214759747045819</v>
+        <v>0.02254501505203367</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04428779156959973</v>
+        <v>0.04227162993359029</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02093950207585266</v>
+        <v>0.02173160863876717</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03207563101575177</v>
+        <v>0.03162060645432285</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02272941600248204</v>
+        <v>0.02247206586872948</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03301433323395175</v>
+        <v>0.03319826563126294</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02543549154599632</v>
+        <v>0.02638757010002086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0354673538582566</v>
+        <v>0.03562662869295209</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02464186601510136</v>
+        <v>0.02512020778157458</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03864407098310468</v>
+        <v>0.03892546608070519</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05525872491770194</v>
+        <v>0.05494003359846093</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06142964274705405</v>
+        <v>0.06133879708771457</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04779269106494047</v>
+        <v>0.04892310063108981</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07866742359901342</v>
+        <v>0.07746373820900232</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05088239973200601</v>
+        <v>0.05152747852883194</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06277906214842537</v>
+        <v>0.06275326472652526</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04443624066170945</v>
+        <v>0.0444672291481409</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05410147825655735</v>
+        <v>0.05439462842159649</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04728095657048038</v>
+        <v>0.04771702687132335</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05742255277625069</v>
+        <v>0.05810214274982297</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04200213536046828</v>
+        <v>0.04188679148780004</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12452</v>
+        <v>12290</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7638</v>
+        <v>7479</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2711</v>
+        <v>2806</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4665</v>
+        <v>5107</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4400</v>
+        <v>4347</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3218</v>
+        <v>3329</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2629</v>
+        <v>2072</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5434</v>
+        <v>5559</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19357</v>
+        <v>19396</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12773</v>
+        <v>13341</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7136</v>
+        <v>7061</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11972</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29806</v>
+        <v>29688</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23931</v>
+        <v>23363</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14423</v>
+        <v>13948</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16832</v>
+        <v>17223</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17300</v>
+        <v>17641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14837</v>
+        <v>16141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12953</v>
+        <v>12976</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13301</v>
+        <v>13616</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40302</v>
+        <v>40031</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32137</v>
+        <v>32382</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23274</v>
+        <v>23566</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25655</v>
+        <v>25879</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12374</v>
+        <v>12620</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19782</v>
+        <v>18517</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5111</v>
+        <v>4174</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9258</v>
+        <v>9576</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14176</v>
+        <v>14364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19481</v>
+        <v>18881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9222</v>
+        <v>9770</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8840</v>
+        <v>8648</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29505</v>
+        <v>31395</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>45761</v>
+        <v>45129</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16517</v>
+        <v>16120</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21830</v>
+        <v>20417</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30078</v>
+        <v>30222</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45501</v>
+        <v>44895</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17218</v>
+        <v>17840</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29964</v>
+        <v>30251</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32591</v>
+        <v>32542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44504</v>
+        <v>42208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26566</v>
+        <v>25602</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21646</v>
+        <v>21729</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>56509</v>
+        <v>57810</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>80323</v>
+        <v>80232</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37312</v>
+        <v>36856</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>46251</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4753</v>
+        <v>4474</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9731</v>
+        <v>9577</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15474</v>
+        <v>15843</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4660</v>
+        <v>4391</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2814</v>
+        <v>3543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3880</v>
+        <v>4436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7191</v>
+        <v>6390</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2239</v>
+        <v>2316</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10266</v>
+        <v>10294</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16562</v>
+        <v>17259</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25742</v>
+        <v>25926</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8791</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17701</v>
+        <v>17670</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27009</v>
+        <v>26520</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33824</v>
+        <v>33845</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18081</v>
+        <v>18307</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13711</v>
+        <v>14734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19088</v>
+        <v>18461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20168</v>
+        <v>19881</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9145</v>
+        <v>9136</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27535</v>
+        <v>27695</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>37641</v>
+        <v>37685</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>47896</v>
+        <v>47644</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23162</v>
+        <v>24492</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13177</v>
+        <v>14148</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15365</v>
+        <v>16721</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9156</v>
+        <v>8682</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13422</v>
+        <v>13917</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6850</v>
+        <v>6833</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11369</v>
+        <v>11021</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3743</v>
+        <v>4031</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10239</v>
+        <v>10097</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24775</v>
+        <v>24886</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>32313</v>
+        <v>32296</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>15371</v>
+        <v>16274</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>27551</v>
+        <v>27673</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34072</v>
+        <v>34554</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38243</v>
+        <v>38394</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25873</v>
+        <v>24723</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33535</v>
+        <v>33886</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20489</v>
+        <v>20334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28044</v>
+        <v>26716</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18010</v>
+        <v>18518</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23602</v>
+        <v>23574</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47422</v>
+        <v>48668</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>60781</v>
+        <v>59997</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>37961</v>
+        <v>37424</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>50841</v>
+        <v>53074</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4741</v>
+        <v>4973</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4202</v>
+        <v>4124</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3425</v>
+        <v>3257</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8951</v>
+        <v>9124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1786</v>
+        <v>1819</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2595</v>
+        <v>2409</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16103</v>
+        <v>16622</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4997</v>
+        <v>4962</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5965</v>
+        <v>6213</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7236</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18322</v>
+        <v>18351</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10307</v>
+        <v>11354</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18376</v>
+        <v>18630</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11785</v>
+        <v>11555</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>25036</v>
+        <v>25941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11054</v>
+        <v>11641</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7060</v>
+        <v>7539</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8307</v>
+        <v>7873</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36430</v>
+        <v>36923</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17214</v>
+        <v>16762</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>20602</v>
+        <v>21041</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>16980</v>
+        <v>17547</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10078</v>
+        <v>9965</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5956</v>
+        <v>6215</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6391</v>
+        <v>6842</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2996</v>
+        <v>3039</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4264</v>
+        <v>4143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1962</v>
+        <v>1918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3532</v>
+        <v>3521</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>15824</v>
+        <v>17023</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10228</v>
+        <v>10085</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10318</v>
+        <v>9537</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7780</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26157</v>
+        <v>25391</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23480</v>
+        <v>24107</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22298</v>
+        <v>23096</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10177</v>
+        <v>9816</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16771</v>
+        <v>16540</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11045</v>
+        <v>12249</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10387</v>
+        <v>8793</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10745</v>
+        <v>10819</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>35759</v>
+        <v>36256</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>29395</v>
+        <v>29936</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>28047</v>
+        <v>26847</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>17985</v>
+        <v>17351</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9431</v>
+        <v>9330</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16858</v>
+        <v>16336</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31604</v>
+        <v>31443</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20130</v>
+        <v>20121</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14649</v>
+        <v>14703</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>10974</v>
+        <v>11730</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>23133</v>
+        <v>22870</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>14904</v>
+        <v>15578</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>28346</v>
+        <v>27347</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>32407</v>
+        <v>32542</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>60711</v>
+        <v>59159</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>39052</v>
+        <v>40264</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23536</v>
+        <v>24705</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>37980</v>
+        <v>39160</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>59746</v>
+        <v>60202</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>51763</v>
+        <v>52389</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34859</v>
+        <v>34493</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>31346</v>
+        <v>32498</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>44899</v>
+        <v>44932</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>34177</v>
+        <v>34288</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>54042</v>
+        <v>52392</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>63207</v>
+        <v>61768</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>96103</v>
+        <v>94036</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>75270</v>
+        <v>74691</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11397</v>
+        <v>11367</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>17800</v>
+        <v>18630</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>24985</v>
+        <v>24872</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17675</v>
+        <v>17993</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>34700</v>
+        <v>33120</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>17251</v>
+        <v>17904</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>26500</v>
+        <v>26124</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>18879</v>
+        <v>18666</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>50346</v>
+        <v>50627</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>40772</v>
+        <v>42298</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>56916</v>
+        <v>57172</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>40134</v>
+        <v>40913</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>28654</v>
+        <v>28862</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>43052</v>
+        <v>42804</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47828</v>
+        <v>47757</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>38142</v>
+        <v>39044</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>61637</v>
+        <v>60694</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>41920</v>
+        <v>42451</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>51866</v>
+        <v>51845</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>36909</v>
+        <v>36935</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>82504</v>
+        <v>82951</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>75789</v>
+        <v>76488</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>92149</v>
+        <v>93239</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>68408</v>
+        <v>68220</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
     </row>
     <row r="40">
